--- a/Trent_Gillson_SemesterPlan.xlsx
+++ b/Trent_Gillson_SemesterPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trent\Documents\College\Winter2018\CIT 261\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trent\Documents\College\Winter2018\CIT 261\LiLDorth.github.io-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -550,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +699,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1389,7 +1398,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1419,7 +1428,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="40.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="16"/>
@@ -1435,7 +1444,7 @@
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" ht="40.5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16"/>
@@ -1453,7 +1462,7 @@
       <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="23.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1469,7 +1478,7 @@
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11" s="17" customFormat="1" ht="23.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1485,7 +1494,7 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16"/>
@@ -1501,7 +1510,7 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.5">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="16"/>
@@ -1551,7 +1560,7 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" s="17" customFormat="1" ht="60.75">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="16"/>
@@ -1567,7 +1576,7 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" s="17" customFormat="1" ht="23.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="16" t="s">
